--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\np\Learn_English\pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0A7FBC-E63B-477C-9BDE-71C51906F4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7AC37F-52F5-4645-8EE3-7597AFDEAACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>student</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,14 @@
   </si>
   <si>
     <t>脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -389,6 +397,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\np\Learn_English\pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7AC37F-52F5-4645-8EE3-7597AFDEAACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638208A-8DEC-4725-B7F3-EBABF53DC7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>student</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,22 @@
   </si>
   <si>
     <t>公牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没意义的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -397,12 +413,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
